--- a/xlsx/kazan.xlsx
+++ b/xlsx/kazan.xlsx
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1870190</v>
+        <v>2100190</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -895,15 +895,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2480190</v>
+        <v>2590190</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/belgee/x50/31166/</t>
+          <t>https://kanavto.ru/new/belgee/x50/37089/</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1870190</v>
+        <v>2100190</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2050190</v>
+        <v>2426190</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -936,15 +936,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3121190</v>
+        <v>2826190</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/belgee/x70/37342/</t>
+          <t>https://kanavto.ru/new/belgee/x70/35277/</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2050190</v>
+        <v>2426190</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1068,11 +1068,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>550000</v>
+        <v>743900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a3dde0ea920475/</t>
+          <t>https://l-auto16.ru/catalog/changan/cs35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1093,14 +1093,6 @@
       <c r="I11" t="inlineStr">
         <is>
           <t>https://globus-auto16.ru/catalog/changan/cs35</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>550000</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a3dde0ea920475/</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1782,7 +1774,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/changan/cs95/33146/</t>
+          <t>https://kanavto.ru/new/changan/cs95/41291/</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1915,6 +1907,14 @@
           <t>https://kazan.avtosalon.shop/catalog/changan/hunter_plus/</t>
         </is>
       </c>
+      <c r="L23" t="n">
+        <v>3739900</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/changan/hunter-plus/38496/</t>
+        </is>
+      </c>
       <c r="N23" t="n">
         <v>2999900</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/changan/lamore/36892/</t>
+          <t>https://kanavto.ru/new/changan/lamore/34940/</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/changan/uni-k/36788/</t>
+          <t>https://kanavto.ru/new/changan/uni-k/41292/</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2590,11 +2590,11 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2380000</v>
+        <v>2500000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/chery/tiggo-4/40054/</t>
+          <t>https://kanavto.ru/new/chery/tiggo-4/40870/</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-822932/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-892837/</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/chery/tiggo-4-pro/40115/</t>
+          <t>https://kanavto.ru/new/chery/tiggo-4-pro/40861/</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-855518/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-885093/</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-858897/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-873624/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/chery/tiggo-7-pro-max/40114/</t>
+          <t>https://kanavto.ru/new/chery/tiggo-7-pro-max/40855/</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-858897/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-873624/</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/chery/tiggo-8-pro-max/38773/</t>
+          <t>https://kanavto.ru/new/chery/tiggo-8-pro-max/40038/</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1999000</v>
+        <v>1949000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1999000</v>
+        <v>1949000</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3499000</v>
+        <v>3599000</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5241,6 +5241,14 @@
           <t>https://dialog-auto.ru/cars/new/auto-lmgmu1g25r1248975/</t>
         </is>
       </c>
+      <c r="L71" t="n">
+        <v>6499999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/gac/m8/39103/</t>
+        </is>
+      </c>
       <c r="N71" t="n">
         <v>4399999</v>
       </c>
@@ -5426,6 +5434,14 @@
           <t>https://kazan.avtosalon.shop/catalog/geely/atlas_pro/</t>
         </is>
       </c>
+      <c r="L74" t="n">
+        <v>3253990</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/geely/atlas-pro/40695/</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>1964990</t>
@@ -5535,7 +5551,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2624190</v>
+        <v>2674190</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6083,7 +6099,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/geely/okavango/35116/</t>
+          <t>https://kanavto.ru/new/geely/okavango/34636/</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -6348,7 +6364,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/great-wall/poer/25454/</t>
+          <t>https://kanavto.ru/new/great-wall/poer/41242/</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -6425,11 +6441,11 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3399000</v>
+        <v>3299000</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/great-wall/poer-king-kong/33116/</t>
+          <t>https://kanavto.ru/new/great-wall/poer-king-kong/40123/</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -6597,11 +6613,11 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3184020</v>
+        <v>3149000</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgff06a6ra923231/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgff06a5sa928510/</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -6877,19 +6893,19 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3399000</v>
+        <v>3179000</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/haval/f7x/17184/</t>
+          <t>https://kanavto.ru/new/haval/f7x/41284/</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1930000</v>
+        <v>2999000</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgef04a9ra639185/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgef04a5pa625488/</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -7050,7 +7066,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/haval/h3/38445/</t>
+          <t>https://kanavto.ru/new/haval/h3/37031/</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -7058,7 +7074,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/haval/h3/38445/</t>
+          <t>https://kanavto.ru/new/haval/h3/37031/</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7400,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/haval/jolion/40153/</t>
+          <t>https://kanavto.ru/new/haval/jolion/41281/</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -7435,19 +7451,19 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2049000</v>
+        <v>1949000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgee04a5sa571640/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgfe04a4ra565844/</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2049000</v>
+        <v>1949000</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgee04a5sa571640/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgfe04a4ra565844/</t>
         </is>
       </c>
     </row>
@@ -7494,19 +7510,19 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2179000</v>
+        <v>1850000</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/haval/m6/39767/</t>
+          <t>https://kanavto.ru/new/haval/m6/35397/</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>1949000</v>
+        <v>1929000</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lgwef4a58rf733579/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-lgwef4a52rf731147/</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -8267,7 +8283,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-34956/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-35708/</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -8351,11 +8367,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1799000</v>
+        <v>1776000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-25950/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-35334/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8379,11 +8395,11 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>1799000</v>
+        <v>1776000</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-25950/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-35334/</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -8778,7 +8794,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-50328/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-56011/</t>
         </is>
       </c>
       <c r="N125" t="n">
@@ -8786,7 +8802,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-50328/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-56011/</t>
         </is>
       </c>
     </row>
@@ -8856,11 +8872,11 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2959900</v>
+        <v>2839900</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/jaecoo/j7/38798/</t>
+          <t>https://kanavto.ru/new/jaecoo/j7/40830/</t>
         </is>
       </c>
       <c r="N127" t="n">
@@ -8897,11 +8913,11 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>4599000</v>
+        <v>3974000</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/jaecoo/j8/38795/</t>
+          <t>https://kanavto.ru/new/jaecoo/j8/38792/</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -8966,19 +8982,19 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2489900</v>
+        <v>2709900</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/jetour/dashing/35730/</t>
+          <t>https://kanavto.ru/new/jetour/dashing/31540/</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>1809900</v>
+        <v>1869900</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-hjrpbgjb2pf953444/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-hjrpbgfa8rb216922/</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -9041,7 +9057,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/jetour/t2/40079/</t>
+          <t>https://kanavto.ru/new/jetour/t2/40788/</t>
         </is>
       </c>
       <c r="N130" t="n">
@@ -9196,7 +9212,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2429900</v>
+        <v>2529900</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -9285,7 +9301,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2659900</v>
+        <v>2545000</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -10617,11 +10633,11 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1043500</v>
+        <v>746400</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/granta/40268/</t>
+          <t>https://kanavto.ru/new/lada/granta/41127/</t>
         </is>
       </c>
       <c r="N160" t="n">
@@ -10866,7 +10882,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/largus/40161/</t>
+          <t>https://kanavto.ru/new/lada/largus/41108/</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -11938,7 +11954,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/vesta/40412/</t>
+          <t>https://kanavto.ru/new/lada/vesta/40764/</t>
         </is>
       </c>
       <c r="N181" t="n">
@@ -12399,7 +12415,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/vis-23461/40227/</t>
+          <t>https://kanavto.ru/new/lada/vis-23461/40930/</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -12407,7 +12423,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/vis-23461/40227/</t>
+          <t>https://kanavto.ru/new/lada/vis-23461/40930/</t>
         </is>
       </c>
     </row>
@@ -13596,11 +13612,11 @@
         </is>
       </c>
       <c r="L211" t="n">
-        <v>1700000</v>
+        <v>1770000</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/moskvich/3/34760/</t>
+          <t>https://kanavto.ru/new/moskvich/3/36672/</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
@@ -14115,7 +14131,7 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2229900</v>
+        <v>1699900</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -14178,11 +14194,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1479900</v>
+        <v>1439900</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-794316/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-794305/</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -14214,7 +14230,7 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>2129900</v>
+        <v>1809900</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
@@ -14222,11 +14238,11 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1479900</v>
+        <v>1439900</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-794316/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-794305/</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -14285,11 +14301,11 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2429900</v>
+        <v>2129900</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/omoda/s5-gt/34853/</t>
+          <t>https://kanavto.ru/new/omoda/s5-gt/38821/</t>
         </is>
       </c>
       <c r="N220" t="n">
@@ -16638,7 +16654,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/400/39831/</t>
+          <t>https://kanavto.ru/new/tank/400/40104/</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -16646,7 +16662,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/400/39831/</t>
+          <t>https://kanavto.ru/new/tank/400/40104/</t>
         </is>
       </c>
     </row>
@@ -16734,33 +16750,33 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>9499000</v>
+        <v>5300000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/700/40103/</t>
+          <t>https://kanavto.ru/new/toyota/camry/30469/</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>9499000</v>
+        <v>5300000</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/700/40103/</t>
+          <t>https://kanavto.ru/new/toyota/camry/30469/</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17027,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/voyah/free/40131/</t>
+          <t>https://kanavto.ru/new/voyah/free/40716/</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -17545,7 +17561,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
+          <t>https://kanavto.ru/new/xcite/x-cross-7/41186/</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -17553,7 +17569,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
+          <t>https://kanavto.ru/new/xcite/x-cross-7/41186/</t>
         </is>
       </c>
     </row>

--- a/xlsx/kazan.xlsx
+++ b/xlsx/kazan.xlsx
@@ -3674,37 +3674,47 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/citroen/c4_sedan_2018</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1749000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/citroen/c4_sedan_2018</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1749000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/citroen/c4_sedan_2018</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1749000</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/citroen/c4_sedan_2018</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>1749000</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/citroen/c4_sedan_2018</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>1749000</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/citroen/c4_sedan_2018</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>1749000</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/citroen/c4_sedan_2018</t>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/citroen/c4_sedan_2018</t>
         </is>
       </c>
     </row>
@@ -3729,37 +3739,47 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/citroen/c5-aircross</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1810000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/citroen/c5-aircross</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1810000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/citroen/c5-aircross</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1810000</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/citroen/c5-aircross</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>1810000</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/citroen/c5-aircross</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1810000</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/citroen/c5-aircross</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>1810000</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/citroen/c5-aircross</t>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/citroen/c5-aircross</t>
         </is>
       </c>
     </row>
@@ -3784,37 +3804,47 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/citroen/spacetourer</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3489900</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/citroen/spacetourer</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3489900</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/citroen/spacetourer</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>3489900</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/citroen/spacetourer</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>3489900</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/citroen/spacetourer</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>3489900</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/citroen/spacetourer</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>3489900</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/citroen/spacetourer</t>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/citroen/spacetourer</t>
         </is>
       </c>
     </row>
@@ -5105,37 +5135,47 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/ecosport_2017</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1116000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/ecosport_2017</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1116000</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/ecosport_2017</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1116000</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/ecosport_2017</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>1116000</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/ecosport_2017</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1116000</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/ecosport_2017</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>1116000</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/ecosport_2017</t>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/ecosport_2017</t>
         </is>
       </c>
     </row>
@@ -5160,37 +5200,47 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/explorer_2017</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3010000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/explorer_2017</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>3010000</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/explorer_2017</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>3010000</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/explorer_2017</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>3010000</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/explorer_2017</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>3010000</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/explorer_2017</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>3010000</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/explorer_2017</t>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/explorer_2017</t>
         </is>
       </c>
     </row>
@@ -5215,37 +5265,47 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/fiesta_hatch_5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>875000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/fiesta_hatch_5</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>875000</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/fiesta_hatch_5</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>875000</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/fiesta_hatch_5</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>875000</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/fiesta_hatch_5</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>875000</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/fiesta_hatch_5</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>875000</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/fiesta_hatch_5</t>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/fiesta_hatch_5</t>
         </is>
       </c>
     </row>
@@ -5270,37 +5330,47 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/fiesta_sedan</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>885000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/fiesta_sedan</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>885000</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/fiesta_sedan</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>885000</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/fiesta_sedan</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>885000</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/fiesta_sedan</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>885000</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/fiesta_sedan</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>885000</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/fiesta_sedan</t>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/fiesta_sedan</t>
         </is>
       </c>
     </row>
@@ -5325,37 +5395,47 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_hatchback_new</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1033000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/focus_hatchback_new</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1033000</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/focus_hatchback_new</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>1033000</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/focus_hatchback_new</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>1033000</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/focus_hatchback_new</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1033000</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/focus_hatchback_new</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>1033000</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/focus_hatchback_new</t>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_hatchback_new</t>
         </is>
       </c>
     </row>
@@ -5380,37 +5460,47 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_sedan_new</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1043000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/focus_sedan_new</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1043000</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/focus_sedan_new</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>1043000</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/focus_sedan_new</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>1043000</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/focus_sedan_new</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1043000</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/focus_sedan_new</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>1043000</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/focus_sedan_new</t>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_sedan_new</t>
         </is>
       </c>
     </row>
@@ -5435,37 +5525,47 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_wagon_new</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1113000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/focus_wagon_new</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1113000</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/focus_wagon_new</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1113000</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/focus_wagon_new</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>1113000</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/focus_wagon_new</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>1113000</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/focus_wagon_new</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>1113000</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/focus_wagon_new</t>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/focus_wagon_new</t>
         </is>
       </c>
     </row>
@@ -5490,37 +5590,47 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/kuga_2016</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/kuga_2016</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/kuga_2016</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/kuga_2016</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>1609000</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/kuga_2016</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/kuga_2016</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/kuga_2016</t>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/kuga_2016</t>
         </is>
       </c>
     </row>
@@ -5545,37 +5655,47 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/ford/mondeo_new</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1612000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/ford/mondeo_new</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1612000</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/ford/mondeo_new</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1612000</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/ford/mondeo_new</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>1612000</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ford/mondeo_new</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>1612000</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ford/mondeo_new</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>1612000</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ford/mondeo_new</t>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/ford/mondeo_new</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10588,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/ceed_2022MY</t>
+          <t>https://l-auto16.ru/catalog/kia/ceed_2022MY</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10509,6 +10629,16 @@
           <t>https://level-motors16.ru/catalog/kia/ceed_2022MY</t>
         </is>
       </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>1239900</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/ceed_2022MY</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10531,7 +10661,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/ceed_sw_2021</t>
+          <t>https://l-auto16.ru/catalog/kia/ceed_sw_2021</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10572,6 +10702,16 @@
           <t>https://level-motors16.ru/catalog/kia/ceed_sw_2021</t>
         </is>
       </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>1295940</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/ceed_sw_2021</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10594,7 +10734,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/cerato_2022</t>
+          <t>https://l-auto16.ru/catalog/kia/cerato_2022</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10635,6 +10775,16 @@
           <t>https://level-motors16.ru/catalog/kia/cerato_2022</t>
         </is>
       </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>1129900</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/cerato_2022</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10723,7 +10873,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/rio_20</t>
+          <t>https://l-auto16.ru/catalog/kia/rio_20</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -10764,6 +10914,16 @@
           <t>https://level-motors16.ru/catalog/kia/rio_20</t>
         </is>
       </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>807900</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/rio_20</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10786,7 +10946,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/rio_x_2022MY</t>
+          <t>https://l-auto16.ru/catalog/kia/rio_x_2022MY</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10827,6 +10987,16 @@
           <t>https://level-motors16.ru/catalog/kia/rio_x_2022MY</t>
         </is>
       </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>860940</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/rio_x_2022MY</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10882,7 +11052,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/seltos</t>
+          <t>https://l-auto16.ru/catalog/kia/seltos</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10923,6 +11093,16 @@
           <t>https://level-motors16.ru/catalog/kia/seltos</t>
         </is>
       </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>962900</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/seltos</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10945,37 +11125,47 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/kia/sorento_2022MY</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2273940</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/kia/sorento_2022MY</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2273940</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/kia/sorento_2022MY</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>2273940</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/kia/sorento_2022MY</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="T162" t="inlineStr">
         <is>
           <t>2273940</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/kia/sorento_2022MY</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2273940</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/kia/sorento_2022MY</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>2273940</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/kia/sorento_2022MY</t>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/sorento_2022MY</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11223,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/kia/soul_2019</t>
+          <t>https://l-auto16.ru/catalog/kia/soul_2019</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11074,6 +11264,16 @@
           <t>https://level-motors16.ru/catalog/kia/soul_2019</t>
         </is>
       </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/kia/soul_2019</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11158,7 +11358,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3328190</v>
+        <v>3820190</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -11174,7 +11374,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3328190</v>
+        <v>3820190</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -14233,37 +14433,47 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1548000</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mazda/6_2018</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>1548000</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mazda/6_2018</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>1548000</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="T216" t="inlineStr">
         <is>
           <t>1548000</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mazda/6_2018</t>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
     </row>
@@ -14288,37 +14498,47 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1645000</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mazda/cx5_2017</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>1645000</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mazda/cx5_2017</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>1645000</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="T217" t="inlineStr">
         <is>
           <t>1645000</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mazda/cx5_2017</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>1645000</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mazda/cx5_2017</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>1645000</t>
-        </is>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mazda/cx5_2017</t>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
     </row>
@@ -14343,37 +14563,47 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mazda/cx-9_2020</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="T218" t="inlineStr">
         <is>
           <t>3585000</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mazda/cx-9_2020</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3585000</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mazda/cx-9_2020</t>
-        </is>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>3585000</t>
-        </is>
-      </c>
-      <c r="Q218" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mazda/cx-9_2020</t>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
         </is>
       </c>
     </row>
@@ -14629,37 +14859,47 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1969000</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/asx_my20</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>1969000</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/asx_my20</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>1969000</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="T226" t="inlineStr">
         <is>
           <t>1969000</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/asx_my20</t>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
     </row>
@@ -14684,37 +14924,47 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2929000</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2929000</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>2929000</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="T227" t="inlineStr">
         <is>
           <t>2929000</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2929000</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>2929000</t>
-        </is>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
     </row>
@@ -14739,7 +14989,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/l200_19my</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -14780,6 +15030,16 @@
           <t>https://level-motors16.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>3479000</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14802,37 +15062,47 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1989000</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/outlander_2019</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>1989000</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/outlander_2019</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>1989000</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="T229" t="inlineStr">
         <is>
           <t>1989000</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/outlander_2019</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>1989000</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/outlander_2019</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>1989000</t>
-        </is>
-      </c>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/outlander_2019</t>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
     </row>
@@ -14857,37 +15127,47 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3739000</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>3739000</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>3739000</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="T230" t="inlineStr">
         <is>
           <t>3739000</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3739000</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>3739000</t>
-        </is>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
     </row>
@@ -18100,37 +18380,47 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>1931000</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/c-hr_2019</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>1931000</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/c-hr_2019</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>1931000</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="T281" t="inlineStr">
         <is>
           <t>1931000</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>1931000</t>
-        </is>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>1931000</t>
-        </is>
-      </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/toyota/c-hr_2019</t>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
     </row>
@@ -18155,7 +18445,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/camry_21</t>
+          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -18196,6 +18486,16 @@
           <t>https://level-motors16.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>1798000</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -18218,37 +18518,47 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1255000</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/Corolla_2019</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>1255000</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/Corolla_2019</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>1255000</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
+      <c r="T283" t="inlineStr">
         <is>
           <t>1255000</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/toyota/Corolla_2019</t>
-        </is>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1255000</t>
-        </is>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/toyota/Corolla_2019</t>
-        </is>
-      </c>
-      <c r="P283" t="inlineStr">
-        <is>
-          <t>1255000</t>
-        </is>
-      </c>
-      <c r="Q283" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/toyota/Corolla_2019</t>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
     </row>
@@ -18273,37 +18583,47 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>3064000</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/fortuner_2020</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>3064000</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/fortuner_2020</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>3064000</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="T284" t="inlineStr">
         <is>
           <t>3064000</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/toyota/fortuner_2020</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>3064000</t>
-        </is>
-      </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/toyota/fortuner_2020</t>
-        </is>
-      </c>
-      <c r="P284" t="inlineStr">
-        <is>
-          <t>3064000</t>
-        </is>
-      </c>
-      <c r="Q284" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/toyota/fortuner_2020</t>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
     </row>
@@ -18328,37 +18648,47 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>4559000</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/highlander_20</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>4559000</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/highlander_20</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>4559000</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="T285" t="inlineStr">
         <is>
           <t>4559000</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/toyota/highlander_20</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>4559000</t>
-        </is>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/toyota/highlander_20</t>
-        </is>
-      </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>4559000</t>
-        </is>
-      </c>
-      <c r="Q285" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/toyota/highlander_20</t>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
     </row>
@@ -18383,37 +18713,47 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2941000</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/hilux_20</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2941000</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/hilux_20</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>2941000</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
           <t>https://level-motors16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="T286" t="inlineStr">
         <is>
           <t>2941000</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/toyota/hilux_20</t>
-        </is>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2941000</t>
-        </is>
-      </c>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/toyota/hilux_20</t>
-        </is>
-      </c>
-      <c r="P286" t="inlineStr">
-        <is>
-          <t>2941000</t>
-        </is>
-      </c>
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/toyota/hilux_20</t>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
     </row>
@@ -18438,7 +18778,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -18479,6 +18819,16 @@
           <t>https://level-motors16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>3251000</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -18501,7 +18851,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -18540,6 +18890,16 @@
       <c r="Q288" t="inlineStr">
         <is>
           <t>https://level-motors16.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
         </is>
       </c>
     </row>

--- a/xlsx/kazan.xlsx
+++ b/xlsx/kazan.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U307"/>
+  <dimension ref="A1:U308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a2ase4pd928584/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls5a2ase6rd926807/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a2ase4pd928584/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls5a2ase6rd926807/</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3959900</v>
+        <v>3229900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3959900</v>
+        <v>3229900</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1839,11 +1839,11 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1819900</v>
+        <v>1789900</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a2dkr2ra007764/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls5a2dkr4ra016448/</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1969,11 +1969,11 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2439900</v>
+        <v>1989900</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls5a2dke0ra003855/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls5a2dke0ra003757/</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2953930</v>
+        <v>3169900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2953930</v>
+        <v>3169900</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2146,19 +2146,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2179900</v>
+        <v>2109900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls4ase2e2ra250823/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls4ase2exra278238/</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2179900</v>
+        <v>2109900</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-ls4ase2e2ra250823/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-ls4ase2exra278238/</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/chery/tiggo-7-pro-max/41527/</t>
+          <t>https://kanavto.ru/new/chery/tiggo-7-pro-max/40855/</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -6065,15 +6065,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3000000</v>
+        <v>3717190</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/geely/atlas/33556/</t>
+          <t>https://kanavto.ru/new/geely/atlas/35125/</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2602033</v>
+        <v>3004190</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1997933</v>
+        <v>2299990</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>1997933</v>
+        <v>2299990</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1959433</v>
+        <v>2184990</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1570793</v>
+        <v>1693990</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1570793</v>
+        <v>1693990</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -6752,11 +6752,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3396533</v>
+        <v>3842190</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f452d2rs112701/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-lb37852d5rs204238/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6788,19 +6788,19 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4089990</v>
+        <v>4239990</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/geely/monjaro/38696/</t>
+          <t>https://kanavto.ru/new/geely/monjaro/39958/</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3396533</v>
+        <v>3842190</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f452d2rs112701/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-lb37852d5rs204238/</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -6851,11 +6851,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2728033</v>
+        <v>3150190</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f41s60ry038546/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-l6tvx1s68ry030839/</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -6867,11 +6867,11 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2728033</v>
+        <v>3150190</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f41s60ry038546/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-l6tvx1s68ry030839/</t>
         </is>
       </c>
     </row>
@@ -6892,11 +6892,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2497033</v>
+        <v>2911190</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f41s87rd115912/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-l6tfs1s8xrd156101/</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -6908,11 +6908,11 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2497033</v>
+        <v>2911190</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lb3f41s87rd115912/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-l6tfs1s8xrd156101/</t>
         </is>
       </c>
     </row>
@@ -7128,15 +7128,15 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/great-wall/poer/25454/</t>
+          <t>https://kanavto.ru/new/great-wall/poer/25181/</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3563220</v>
+        <v>3399000</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lgwdae194rj657262/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-lgwdae190rj657243/</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgff06a5sa928541/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgff06a5sa928510/</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -7541,11 +7541,11 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2599000</v>
+        <v>2529000</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgef04axsa379921/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgef04a1ra376447/</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -7665,11 +7665,11 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3076260</v>
+        <v>2749000</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-xzgff06a4pa634751/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-xzgef04a5pa625488/</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8257,11 +8257,11 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>1879000</v>
+        <v>1949000</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-lgwef4a55rf740733/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-lgwef4a54rf730968/</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1473000</v>
+        <v>1359000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>1473000</v>
+        <v>1359000</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/granta/40268/</t>
+          <t>https://kanavto.ru/new/lada/granta/38141/</t>
         </is>
       </c>
       <c r="N173" t="n">
@@ -13580,123 +13580,73 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Land Rover</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>Discovery Sport</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>14500000</v>
+        <v>6750000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lexus/rx/40143/</t>
+          <t>https://kanavto.ru/new/land-rover/discovery-sport/37147/</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>14500000</v>
+        <v>6750000</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lexus/rx/40143/</t>
+          <t>https://kanavto.ru/new/land-rover/discovery-sport/37147/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lexus</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>571000</v>
+        <v>14500000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>571000</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>571000</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="J204" t="n">
-        <v>919900</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>571000</t>
-        </is>
-      </c>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>621000</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>571000</t>
-        </is>
-      </c>
-      <c r="U204" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/lifan/murman</t>
+          <t>https://kanavto.ru/new/lexus/rx/40143/</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/lexus/rx/40143/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -13706,80 +13656,80 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>756900</v>
+        <v>571000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/myway</t>
+          <t>https://l-auto16.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>756900</t>
+          <t>571000</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/lifan/myway</t>
+          <t>https://lvl-auto.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>756900</t>
+          <t>571000</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/lifan/myway</t>
+          <t>https://globus-auto16.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>799900</v>
+        <v>919900</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/myway/</t>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/murman/</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>756900</t>
+          <t>571000</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/lifan/myway</t>
+          <t>https://level-motors16.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>756900</t>
+          <t>621000</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/myway</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>756900</t>
+          <t>571000</t>
         </is>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/myway</t>
+          <t>https://l-auto16.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -13789,42 +13739,80 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>492000</v>
+        <v>756900</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/solano2</t>
+          <t>https://l-auto16.ru/catalog/lifan/myway</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>492000</t>
+          <t>756900</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/lifan/solano2</t>
+          <t>https://lvl-auto.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>756900</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>799900</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>756900</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>756900</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/myway</t>
         </is>
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>492000</t>
+          <t>756900</t>
         </is>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/solano2</t>
+          <t>https://l-auto16.ru/catalog/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -13834,7 +13822,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -13842,52 +13830,34 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
+          <t>https://l-auto16.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
         <is>
           <t>492000</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
-      <c r="J207" t="n">
-        <v>609900</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
         <is>
           <t>492000</t>
         </is>
       </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>492000</t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/solano2</t>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -13897,80 +13867,60 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>514000</v>
+        <v>492000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>514000</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/lifan/x50</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>514000</t>
+          <t>492000</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/lifan/x50</t>
+          <t>https://globus-auto16.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>589900</v>
+        <v>609900</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/x50/</t>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>514000</t>
+          <t>492000</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/lifan/x50</t>
+          <t>https://level-motors16.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>554000</t>
+          <t>492000</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>514000</t>
-        </is>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/lifan/x50</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -13980,80 +13930,80 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>626900</v>
+        <v>514000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/x60</t>
+          <t>https://l-auto16.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>514000</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/lifan/x60</t>
+          <t>https://lvl-auto.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>514000</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/lifan/x60</t>
+          <t>https://globus-auto16.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>669900</v>
+        <v>589900</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/x60/</t>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/x50/</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>514000</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/lifan/x60</t>
+          <t>https://level-motors16.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>554000</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>514000</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/x60</t>
+          <t>https://l-auto16.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -14063,145 +14013,163 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>736000</v>
+        <v>626900</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/x70</t>
+          <t>https://l-auto16.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>626900</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/lifan/x70</t>
+          <t>https://lvl-auto.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>626900</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/lifan/x70</t>
+          <t>https://globus-auto16.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>889000</v>
+        <v>669900</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/lifan/x70/</t>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/x60/</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>626900</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/lifan/x70</t>
+          <t>https://level-motors16.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>626900</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/x70</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>736000</t>
+          <t>626900</t>
         </is>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/lifan/x70</t>
+          <t>https://l-auto16.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1784930</v>
+        <v>736000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/s6pro</t>
+          <t>https://l-auto16.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/livan/s6pro</t>
+          <t>https://lvl-auto.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/livan/s6pro</t>
+          <t>https://globus-auto16.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>889000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/lifan/x70/</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/livan/s6pro</t>
+          <t>https://level-motors16.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>736000</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/s6pro</t>
+          <t>https://l-auto16.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -14211,80 +14179,62 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1579900</v>
+        <v>1784930</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/x3pro</t>
+          <t>https://l-auto16.ru/catalog/livan/s6pro</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/livan/x3pro</t>
+          <t>https://lvl-auto.ru/catalog/livan/s6pro</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="J212" t="n">
-        <v>1829900</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/livan/x3pro/</t>
+          <t>https://globus-auto16.ru/catalog/livan/s6pro</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/livan/x3_pro</t>
+          <t>https://level-motors16.ru/catalog/livan/s6pro</t>
         </is>
       </c>
       <c r="T212" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/x3pro</t>
+          <t>https://l-auto16.ru/catalog/livan/s6pro</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -14294,95 +14244,145 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1840930</v>
+        <v>1579900</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/x6pro</t>
+          <t>https://l-auto16.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/livan/x6pro</t>
+          <t>https://lvl-auto.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/livan/x6pro</t>
+          <t>https://globus-auto16.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>1829900</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/livan/x3pro/</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/livan/x6pro</t>
+          <t>https://level-motors16.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/livan/x3_pro</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/livan/x6pro</t>
+          <t>https://l-auto16.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Lixiang</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>7084600</v>
+        <v>1840930</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lixiang/l7/38804/</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>7084600</v>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/lixiang/l7/38804/</t>
+          <t>https://l-auto16.ru/catalog/livan/x6pro</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/livan/x6pro</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/livan/x6pro</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/livan/x6pro</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/livan/x6pro</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -14392,95 +14392,63 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>9000000</v>
+        <v>7084600</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lixiang/l9/38805/</t>
+          <t>https://kanavto.ru/new/lixiang/l7/38804/</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>9000000</v>
+        <v>7084600</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lixiang/l9/38805/</t>
+          <t>https://kanavto.ru/new/lixiang/l7/38804/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Lixiang</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>L9</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1548000</v>
+        <v>7544000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>1548000</t>
-        </is>
-      </c>
-      <c r="U216" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
+          <t>https://kanavto.ru/new/lixiang/l9/33048/</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>7544000</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/lixiang/l9/33048/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -14490,62 +14458,62 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1645000</v>
+        <v>1548000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
+          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1548000</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mazda/cx5_2017</t>
+          <t>https://lvl-auto.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1548000</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mazda/cx5_2017</t>
+          <t>https://globus-auto16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1548000</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mazda/cx5_2017</t>
+          <t>https://level-motors16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1548000</t>
         </is>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
+          <t>https://l-auto16.ru/catalog/mazda/6_2018</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -14555,95 +14523,127 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>3585000</v>
+        <v>1645000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
+          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>3585000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mazda/cx-9_2020</t>
+          <t>https://lvl-auto.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>3585000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mazda/cx-9_2020</t>
+          <t>https://globus-auto16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>3585000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mazda/cx-9_2020</t>
+          <t>https://level-motors16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>3585000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
+          <t>https://l-auto16.ru/catalog/mazda/cx5_2017</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>G-класс AMG</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>47000000</v>
+        <v>3585000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/g-klass-amg/38815/</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>47000000</v>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/mercedes-benz/g-klass-amg/38815/</t>
+          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/mazda/cx-9_2020</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>3585000</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/mazda/cx-9_2020</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>866</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -14653,30 +14653,30 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>GLE</t>
+          <t>G-класс AMG</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>13000000</v>
+        <v>47000000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gle/1940/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/g-klass-amg/38815/</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>13000000</v>
+        <v>47000000</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gle/1940/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/g-klass-amg/38815/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -14686,30 +14686,30 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>GLE AMG</t>
+          <t>GLE</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>27700000</v>
+        <v>13000000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gle-amg/38810/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gle/1940/</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>27700000</v>
+        <v>13000000</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gle-amg/38810/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gle/1940/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -14719,30 +14719,30 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>GLS</t>
+          <t>GLE AMG</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>20296000</v>
+        <v>27700000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gls-klasse/38812/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gle-amg/38810/</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>20296000</v>
+        <v>27700000</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gls-klasse/38812/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gle-amg/38810/</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -14752,30 +14752,30 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>GLS AMG</t>
+          <t>GLS</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38344000</v>
+        <v>20296000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gls-amg/36732/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gls-klasse/38812/</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>38344000</v>
+        <v>20296000</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/gls-amg/36732/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gls-klasse/38812/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>864</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -14785,30 +14785,30 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Maybach S-класс</t>
+          <t>GLS AMG</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>45700000</v>
+        <v>38344000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/maybach-s-klass/38813/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gls-amg/36732/</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>45700000</v>
+        <v>38344000</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/maybach-s-klass/38813/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/gls-amg/36732/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -14818,95 +14818,63 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>V-класс</t>
+          <t>Maybach S-класс</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>18500000</v>
+        <v>45700000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/v-klass/38802/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/maybach-s-klass/38813/</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>18500000</v>
+        <v>45700000</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/mercedes-benz/v-klass/38802/</t>
+          <t>https://kanavto.ru/new/mercedes-benz/maybach-s-klass/38813/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mercedes-Benz</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>V-класс</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1969000</v>
+        <v>18500000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="T226" t="inlineStr">
-        <is>
-          <t>1969000</t>
-        </is>
-      </c>
-      <c r="U226" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
+          <t>https://kanavto.ru/new/mercedes-benz/v-klass/38802/</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/mercedes-benz/v-klass/38802/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -14916,62 +14884,62 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>2929000</v>
+        <v>1969000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2929000</t>
+          <t>1969000</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2929000</t>
+          <t>1969000</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2929000</t>
+          <t>1969000</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+          <t>https://level-motors16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>2929000</t>
+          <t>1969000</t>
         </is>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/asx_my20</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -14981,70 +14949,62 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>Eclipse Cross</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3479000</v>
+        <v>2929000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>3479000</t>
+          <t>2929000</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/l200_19my</t>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>3479000</t>
+          <t>2929000</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/l200_19my</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>5700000</v>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/mitsubishi/l200/34464/</t>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>3479000</t>
+          <t>2929000</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/l200_19my</t>
+          <t>https://level-motors16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>3479000</t>
+          <t>2929000</t>
         </is>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -15054,62 +15014,70 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1989000</v>
+        <v>3479000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1989000</t>
+          <t>3479000</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1989000</t>
+          <t>3479000</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/l200_19my</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/mitsubishi/l200/34464/</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>1989000</t>
+          <t>3479000</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://level-motors16.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>1989000</t>
+          <t>3479000</t>
         </is>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -15119,153 +15087,127 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3739000</v>
+        <v>1989000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>3739000</t>
+          <t>1989000</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>3739000</t>
+          <t>1989000</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>3739000</t>
+          <t>1989000</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+          <t>https://level-motors16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t>3739000</t>
+          <t>1989000</t>
         </is>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1444000</v>
+        <v>3739000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1444000</t>
+          <t>3739000</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_3</t>
+          <t>https://lvl-auto.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>1444000</t>
+          <t>3739000</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_3</t>
-        </is>
-      </c>
-      <c r="J231" t="n">
-        <v>1892000</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1765000</v>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/moskvich/3/41564/</t>
+          <t>https://globus-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>1444000</t>
+          <t>3739000</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/moskvic/moskvish_3</t>
-        </is>
-      </c>
-      <c r="R231" t="inlineStr">
-        <is>
-          <t>1444000</t>
-        </is>
-      </c>
-      <c r="S231" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/moskvich/mos_3</t>
+          <t>https://level-motors16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>1444000</t>
+          <t>3739000</t>
         </is>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3</t>
+          <t>https://l-auto16.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -15275,70 +15217,88 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2450000</v>
+        <v>1444000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2450000</t>
+          <t>1444000</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_3</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2450000</t>
+          <t>1444000</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_3</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>3508000</v>
+        <v>1892000</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/moskvich/3e/</t>
+          <t>https://kazan.avtosalon.shop/catalog/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/moskvich/3/34757/</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2450000</t>
+          <t>1444000</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://level-motors16.ru/catalog/moskvic/moskvish_3</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>1444000</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/moskvich/mos_3</t>
         </is>
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>2450000</t>
+          <t>1444000</t>
         </is>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -15348,103 +15308,143 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1540000</v>
+        <v>2450000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_6</t>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>2450000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_6</t>
+          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>2450000</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_6</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>2200000</v>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/moskvich/6/25286/</t>
+          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_3e</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>3508000</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/moskvich/3e/</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>2450000</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/moskvic/moskvish_6</t>
+          <t>https://level-motors16.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>2450000</t>
         </is>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/moskvic/moskvish_6</t>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>4309000</v>
+        <v>1540000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="J234" t="n">
-        <v>4309000</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/nissan/murano/</t>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_6</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1540000</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/moskvic/moskvish_6</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>1540000</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/moskvic/moskvish_6</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/moskvich/6/25286/</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>1540000</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/moskvic/moskvish_6</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>1540000</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/moskvic/moskvish_6</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -15454,80 +15454,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>963000</v>
+        <v>4309000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/nissan/qashqai_new</t>
+          <t>https://kazan.avtosalon.shop/catalog/nissan/murano/</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1515000</v>
+        <v>4309000</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="R235" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/qashqai_2020</t>
-        </is>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="U235" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/nissan/qashqai_new</t>
+          <t>https://kazan.avtosalon.shop/catalog/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -15537,80 +15487,80 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>822000</v>
+        <v>963000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/nissan/terrano</t>
+          <t>https://l-auto16.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/nissan/terrano</t>
+          <t>https://lvl-auto.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/nissan/terrano</t>
+          <t>https://globus-auto16.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1114000</v>
+        <v>1515000</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/nissan/terrano/</t>
+          <t>https://kazan.avtosalon.shop/catalog/nissan/qashqai/</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/nissan/terrano</t>
+          <t>https://level-motors16.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/terrano</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/nissan/terrano</t>
+          <t>https://l-auto16.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -15620,179 +15570,163 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1259000</v>
+        <v>822000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/nissan/x-trail_new</t>
+          <t>https://l-auto16.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>822000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/nissan/x-trail_new</t>
+          <t>https://lvl-auto.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>822000</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/nissan/x-trail_new</t>
+          <t>https://globus-auto16.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1900000</v>
+        <v>1114000</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/nissan/x-trail/</t>
+          <t>https://kazan.avtosalon.shop/catalog/nissan/terrano/</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>822000</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/nissan/x-trail_new</t>
+          <t>https://level-motors16.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>822000</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>822000</t>
         </is>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/nissan/x-trail_new</t>
+          <t>https://l-auto16.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1614900</v>
+        <v>1259000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-853159/</t>
+          <t>https://l-auto16.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2429900</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/omoda/c5</t>
+          <t>https://lvl-auto.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2429900</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/omoda/c5</t>
+          <t>https://globus-auto16.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2409900</v>
+        <v>1900000</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1699900</v>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/omoda/c5/38827/</t>
-        </is>
-      </c>
-      <c r="N238" t="n">
-        <v>1614900</v>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>https://dialog-auto.ru/cars/new/auto-853159/</t>
+          <t>https://kazan.avtosalon.shop/catalog/nissan/x-trail/</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2429900</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/omoda/c5</t>
+          <t>https://level-motors16.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>2429900</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/omoda/c5</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/nissan/x-trail_2020</t>
         </is>
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>2369900</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/omoda/c5</t>
+          <t>https://l-auto16.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -15802,96 +15736,96 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1439900</v>
+        <v>1614900</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-751037/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-853159/</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>2429900</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/omoda/omoda_s5</t>
+          <t>https://lvl-auto.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>2429900</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/omoda/omoda_s5</t>
+          <t>https://globus-auto16.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2109900</v>
+        <v>2409900</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/omoda/s5/</t>
+          <t>https://kazan.avtosalon.shop/catalog/omoda/c5/</t>
         </is>
       </c>
       <c r="L239" t="n">
-        <v>1809900</v>
+        <v>1699900</v>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/omoda/s5/39285/</t>
+          <t>https://kanavto.ru/new/omoda/c5/38827/</t>
         </is>
       </c>
       <c r="N239" t="n">
-        <v>1439900</v>
+        <v>1614900</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-751037/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-853159/</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2249000</t>
+          <t>2429900</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/omoda/s5</t>
+          <t>https://level-motors16.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>2429900</t>
         </is>
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/omoda/s5</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="T239" t="inlineStr">
         <is>
-          <t>2129000</t>
+          <t>2369900</t>
         </is>
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/omoda/omoda_s5</t>
+          <t>https://l-auto16.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -15901,187 +15835,203 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1749900</v>
+        <v>1439900</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-764886/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-751037/</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1659900</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/omoda/omoda_s5</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>1659900</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/omoda/omoda_s5</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>2109900</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/omoda/s5/</t>
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2129900</v>
+        <v>1809900</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/omoda/s5-gt/38821/</t>
+          <t>https://kanavto.ru/new/omoda/s5/39285/</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>1749900</v>
+        <v>1439900</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-764886/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-751037/</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>2249000</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/omoda/s5</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>1659900</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/omoda/s5</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>2129000</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/omoda/omoda_s5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ora</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>3029000</v>
+        <v>1749900</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/ora/03/36723/</t>
+          <t>https://dialog-auto.ru/cars/new/auto-764886/</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>3029000</v>
+        <v>2129900</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/ora/03/36723/</t>
+          <t>https://kanavto.ru/new/omoda/s5-gt/38821/</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1749900</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>https://dialog-auto.ru/cars/new/auto-764886/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Porshe</t>
+          <t>Ora</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Cayenne</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>33200000</v>
+        <v>3029000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/porsche/cayenne/36734/</t>
+          <t>https://kanavto.ru/new/ora/03/36723/</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>33200000</v>
+        <v>3029000</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/porsche/cayenne/36734/</t>
+          <t>https://kanavto.ru/new/ora/03/36723/</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Porshe</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Cayenne</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>386500</v>
+        <v>33200000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>386500</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>386500</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="J243" t="n">
-        <v>725000</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>386500</t>
-        </is>
-      </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="R243" t="inlineStr">
-        <is>
-          <t>386500</t>
-        </is>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>386500</t>
-        </is>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/ravon/nexia_r3</t>
+          <t>https://kanavto.ru/new/porsche/cayenne/36734/</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>33200000</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/porsche/cayenne/36734/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -16091,80 +16041,80 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>376000</v>
+        <v>386500</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/ravon/r2</t>
+          <t>https://l-auto16.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>376000</t>
+          <t>386500</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/ravon/r2</t>
+          <t>https://lvl-auto.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>376000</t>
+          <t>386500</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/ravon/r2</t>
+          <t>https://globus-auto16.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>783000</v>
+        <v>725000</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/ravon/r2/</t>
+          <t>https://kazan.avtosalon.shop/catalog/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>376000</t>
+          <t>386500</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/ravon/r2</t>
+          <t>https://level-motors16.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>376000</t>
+          <t>386500</t>
         </is>
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/r2</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>376000</t>
+          <t>386500</t>
         </is>
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/ravon/r2</t>
+          <t>https://l-auto16.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -16174,163 +16124,163 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>381000</v>
+        <v>376000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/ravon/r4</t>
+          <t>https://l-auto16.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>381000</t>
+          <t>376000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/ravon/r4</t>
+          <t>https://lvl-auto.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>381000</t>
+          <t>376000</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/ravon/r4</t>
+          <t>https://globus-auto16.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>751000</v>
+        <v>783000</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/ravon/r4/</t>
+          <t>https://kazan.avtosalon.shop/catalog/ravon/r2/</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>381000</t>
+          <t>376000</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/ravon/r4</t>
+          <t>https://level-motors16.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>381000</t>
+          <t>376000</t>
         </is>
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/r4</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>381000</t>
+          <t>376000</t>
         </is>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/ravon/r4</t>
+          <t>https://l-auto16.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>802000</v>
+        <v>381000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/arkana</t>
+          <t>https://l-auto16.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>802000</t>
+          <t>381000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/arkana</t>
+          <t>https://lvl-auto.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>802000</t>
+          <t>381000</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/arkana</t>
+          <t>https://globus-auto16.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1774000</v>
+        <v>751000</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/arkana/</t>
+          <t>https://kazan.avtosalon.shop/catalog/ravon/r4/</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>802000</t>
+          <t>381000</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/arkana</t>
+          <t>https://level-motors16.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>882000</t>
+          <t>381000</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/arkana</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
         <is>
-          <t>802000</t>
+          <t>381000</t>
         </is>
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/arkana</t>
+          <t>https://l-auto16.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -16340,80 +16290,80 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>586000</v>
+        <v>802000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/duster</t>
+          <t>https://l-auto16.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>586000</t>
+          <t>802000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/duster</t>
+          <t>https://lvl-auto.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>586000</t>
+          <t>802000</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/duster</t>
+          <t>https://globus-auto16.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1518000</v>
+        <v>1774000</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/duster/</t>
+          <t>https://kazan.avtosalon.shop/catalog/renault/arkana/</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>586000</t>
+          <t>802000</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/duster</t>
+          <t>https://level-motors16.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>882000</t>
         </is>
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/duster_2021</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>586000</t>
+          <t>802000</t>
         </is>
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/duster</t>
+          <t>https://l-auto16.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -16423,62 +16373,80 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>649000</v>
+        <v>586000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/duster_new</t>
+          <t>https://l-auto16.ru/catalog/renault/duster</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
+          <t>586000</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/renault/duster</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>586000</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/renault/duster</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>1518000</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/renault/duster/</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>586000</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/renault/duster</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
           <t>649000</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>649000</t>
-        </is>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="P248" t="inlineStr">
-        <is>
-          <t>649000</t>
-        </is>
-      </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/renault/duster_new</t>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>586000</t>
         </is>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/duster_new</t>
+          <t>https://l-auto16.ru/catalog/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -16488,80 +16456,62 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>698000</v>
+        <v>649000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/kaptur</t>
+          <t>https://l-auto16.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/kaptur</t>
+          <t>https://lvl-auto.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="J249" t="n">
-        <v>1624000</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/kaptur/</t>
+          <t>https://globus-auto16.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="R249" t="inlineStr">
-        <is>
-          <t>698000</t>
-        </is>
-      </c>
-      <c r="S249" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/kaptur_2020</t>
+          <t>https://level-motors16.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="T249" t="inlineStr">
         <is>
-          <t>698000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/kaptur</t>
+          <t>https://l-auto16.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -16571,80 +16521,80 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>394000</v>
+        <v>698000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_new</t>
+          <t>https://l-auto16.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/logan_new</t>
+          <t>https://lvl-auto.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/logan_new</t>
+          <t>https://globus-auto16.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1024000</v>
+        <v>1624000</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/logan/</t>
+          <t>https://kazan.avtosalon.shop/catalog/renault/kaptur/</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/logan_new</t>
+          <t>https://level-motors16.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_new_2018</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>698000</t>
         </is>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_new</t>
+          <t>https://l-auto16.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -16654,80 +16604,80 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>579000</v>
+        <v>394000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_stepway</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/logan_stepway</t>
+          <t>https://lvl-auto.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/logan_stepway</t>
+          <t>https://globus-auto16.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1201000</v>
+        <v>1024000</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/logan_stepway/</t>
+          <t>https://kazan.avtosalon.shop/catalog/renault/logan/</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/logan_stepway</t>
+          <t>https://level-motors16.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_stepway</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="U251" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_stepway</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -16737,72 +16687,80 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>768000</v>
+        <v>579000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>768000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://lvl-auto.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>768000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://globus-auto16.ru/catalog/renault/logan_stepway</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>1201000</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>768000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://level-motors16.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>768000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="T252" t="inlineStr">
         <is>
-          <t>768000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -16812,80 +16770,72 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>471000</v>
+        <v>768000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_new</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>768000</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/sandero_new</t>
+          <t>https://lvl-auto.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>768000</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/sandero_new</t>
-        </is>
-      </c>
-      <c r="J253" t="n">
-        <v>1158000</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/sandero/</t>
+          <t>https://globus-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>768000</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/sandero_new</t>
+          <t>https://level-motors16.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>768000</t>
         </is>
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_2018</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="T253" t="inlineStr">
         <is>
-          <t>471000</t>
+          <t>768000</t>
         </is>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_new</t>
+          <t>https://l-auto16.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -16895,80 +16845,80 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>573000</v>
+        <v>471000</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_stepway</t>
+          <t>https://l-auto16.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/sandero_stepway</t>
+          <t>https://lvl-auto.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/renault/sandero_stepway</t>
+          <t>https://globus-auto16.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1273000</v>
+        <v>1158000</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/renault/sandero_stepway/</t>
+          <t>https://kazan.avtosalon.shop/catalog/renault/sandero/</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/sandero_stepway</t>
+          <t>https://level-motors16.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>573000</t>
+          <t>471000</t>
         </is>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_stepway</t>
+          <t>https://l-auto16.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -16978,160 +16928,178 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>822000</v>
+        <v>573000</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://l-auto16.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://lvl-auto.ru/catalog/renault/sandero_stepway</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>573000</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/renault/sandero_stepway</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>1273000</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://level-motors16.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="T255" t="inlineStr">
         <is>
-          <t>822000</t>
+          <t>573000</t>
         </is>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://l-auto16.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8869000</v>
+        <v>822000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://dialog-auto.ru/cars/new/auto-hj42kce1x81884414/</t>
-        </is>
-      </c>
-      <c r="N256" t="n">
-        <v>8869000</v>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>https://dialog-auto.ru/cars/new/auto-hj42kce1x81884414/</t>
+          <t>https://l-auto16.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>822000</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>822000</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>822000</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>822000</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1709600</v>
+        <v>8869000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>1709600</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>1709600</t>
-        </is>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>1709600</t>
-        </is>
-      </c>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/swm/g01</t>
-        </is>
-      </c>
-      <c r="T257" t="inlineStr">
-        <is>
-          <t>1709600</t>
-        </is>
-      </c>
-      <c r="U257" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/swm/g01</t>
+          <t>https://dialog-auto.ru/cars/new/auto-hj42kce1x81884414/</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>8869000</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>https://dialog-auto.ru/cars/new/auto-hj42kce1x81884414/</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -17141,70 +17109,62 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1950200</v>
+        <v>1709600</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/swm/g01f</t>
+          <t>https://l-auto16.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1950200</t>
+          <t>1709600</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/swm/g01f</t>
+          <t>https://lvl-auto.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1950200</t>
+          <t>1709600</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/swm/g01f</t>
-        </is>
-      </c>
-      <c r="N258" t="n">
-        <v>2318340</v>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>https://dialog-auto.ru/cars/new/auto-zn0b800aalv863159/</t>
+          <t>https://globus-auto16.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>1950200</t>
+          <t>1709600</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/swm/g01f</t>
+          <t>https://level-motors16.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>1950200</t>
+          <t>1709600</t>
         </is>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/swm/g01f</t>
+          <t>https://l-auto16.ru/catalog/swm/g01</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -17214,95 +17174,135 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1964000</v>
+        <v>1950200</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/swm/g05_pro</t>
+          <t>https://l-auto16.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1964000</t>
+          <t>1950200</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/swm/g05_pro</t>
+          <t>https://lvl-auto.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1964000</t>
+          <t>1950200</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/swm/g05_pro</t>
+          <t>https://globus-auto16.ru/catalog/swm/g01f</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>2318340</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>https://dialog-auto.ru/cars/new/auto-zn0b800aalv863159/</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>1964000</t>
+          <t>1950200</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/swm/g05_pro</t>
+          <t>https://level-motors16.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="T259" t="inlineStr">
         <is>
-          <t>1964000</t>
+          <t>1950200</t>
         </is>
       </c>
       <c r="U259" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/swm/g05_pro</t>
+          <t>https://l-auto16.ru/catalog/swm/g01f</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Seres</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>6090000</v>
+        <v>1964000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/seres/m5/41490/</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>6090000</v>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/seres/m5/41490/</t>
+          <t>https://l-auto16.ru/catalog/swm/g05_pro</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>1964000</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/swm/g05_pro</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>1964000</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/swm/g05_pro</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>1964000</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/swm/g05_pro</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>1964000</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/swm/g05_pro</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -17312,113 +17312,63 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>7090000</v>
+        <v>6090000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/seres/m7/37020/</t>
+          <t>https://kanavto.ru/new/seres/m5/41490/</t>
         </is>
       </c>
       <c r="L261" t="n">
-        <v>7090000</v>
+        <v>6090000</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/seres/m7/37020/</t>
+          <t>https://kanavto.ru/new/seres/m5/41490/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Seres</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1094000</v>
+        <v>7090000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>1094000</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1094000</t>
-        </is>
-      </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="J262" t="n">
-        <v>2616000</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="P262" t="inlineStr">
-        <is>
-          <t>1094000</t>
-        </is>
-      </c>
-      <c r="Q262" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="R262" t="inlineStr">
-        <is>
-          <t>1094000</t>
-        </is>
-      </c>
-      <c r="S262" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="T262" t="inlineStr">
-        <is>
-          <t>1094000</t>
-        </is>
-      </c>
-      <c r="U262" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/skoda/karoq</t>
+          <t>https://kanavto.ru/new/seres/m7/37020/</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>7090000</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/seres/m7/37020/</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -17428,30 +17378,80 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>3540000</v>
+        <v>1094000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
+          <t>https://l-auto16.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3540000</v>
+        <v>2616000</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -17461,40 +17461,30 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1258000</v>
+        <v>3540000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/octavia_20</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2513000</v>
+        <v>3540000</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="R264" t="inlineStr">
-        <is>
-          <t>1258000</t>
-        </is>
-      </c>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/octavia_20</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/obnovlennii_kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -17504,62 +17494,40 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1162000</v>
+        <v>1258000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>1162000</t>
-        </is>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>1162000</t>
-        </is>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="P265" t="inlineStr">
-        <is>
-          <t>1162000</t>
-        </is>
-      </c>
-      <c r="Q265" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="T265" t="inlineStr">
-        <is>
-          <t>1162000</t>
-        </is>
-      </c>
-      <c r="U265" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>2513000</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>1258000</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -17569,62 +17537,62 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1156000</v>
+        <v>1162000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/skoda/octavia_new</t>
+          <t>https://l-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>1156000</t>
+          <t>1162000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/skoda/octavia_new</t>
+          <t>https://lvl-auto.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>1156000</t>
+          <t>1162000</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/skoda/octavia_new</t>
+          <t>https://globus-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>1156000</t>
+          <t>1162000</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/skoda/octavia_new</t>
+          <t>https://level-motors16.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="T266" t="inlineStr">
         <is>
-          <t>1156000</t>
+          <t>1162000</t>
         </is>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/skoda/octavia_new</t>
+          <t>https://l-auto16.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -17634,40 +17602,62 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>537000</v>
+        <v>1156000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="J267" t="n">
-        <v>1502000</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="R267" t="inlineStr">
-        <is>
-          <t>537000</t>
-        </is>
-      </c>
-      <c r="S267" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/rapid_2020</t>
+          <t>https://l-auto16.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -17677,7 +17667,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -17685,54 +17675,32 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
+          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>1502000</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
         <is>
           <t>537000</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>537000</t>
-        </is>
-      </c>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="P268" t="inlineStr">
-        <is>
-          <t>537000</t>
-        </is>
-      </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="T268" t="inlineStr">
-        <is>
-          <t>537000</t>
-        </is>
-      </c>
-      <c r="U268" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/skoda/rapid_new</t>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -17742,30 +17710,62 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>3286000</v>
+        <v>537000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="J269" t="n">
-        <v>3286000</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/superb/</t>
+          <t>https://l-auto16.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>537000</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>537000</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>537000</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>537000</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -17775,95 +17775,63 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3717000</v>
+        <v>3286000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/superb_combi/</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/superb/</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3717000</v>
+        <v>3286000</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/skoda/superb_combi/</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1763000</v>
+        <v>3717000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>1763000</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>1763000</t>
-        </is>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>1763000</t>
-        </is>
-      </c>
-      <c r="Q271" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
-      <c r="T271" t="inlineStr">
-        <is>
-          <t>1763000</t>
-        </is>
-      </c>
-      <c r="U271" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/solaris/hc</t>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>3717000</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -17873,62 +17841,62 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1390000</v>
+        <v>1763000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/hs</t>
+          <t>https://l-auto16.ru/catalog/solaris/hc</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1763000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/solaris/hs</t>
+          <t>https://lvl-auto.ru/catalog/solaris/hc</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1763000</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/solaris/hs</t>
+          <t>https://globus-auto16.ru/catalog/solaris/hc</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1763000</t>
         </is>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/solaris/hs</t>
+          <t>https://level-motors16.ru/catalog/solaris/hc</t>
         </is>
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1763000</t>
         </is>
       </c>
       <c r="U272" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/hs</t>
+          <t>https://l-auto16.ru/catalog/solaris/hc</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -17938,62 +17906,62 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1448000</v>
+        <v>1390000</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/krs</t>
+          <t>https://l-auto16.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>1448000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/solaris/krs</t>
+          <t>https://lvl-auto.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1448000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/solaris/krs</t>
+          <t>https://globus-auto16.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>1448000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/solaris/krs</t>
+          <t>https://level-motors16.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>1448000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/krs</t>
+          <t>https://l-auto16.ru/catalog/solaris/hs</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -18003,95 +17971,127 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1464000</v>
+        <v>1448000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/krx</t>
+          <t>https://l-auto16.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1448000</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/solaris/krx</t>
+          <t>https://lvl-auto.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1448000</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/solaris/krx</t>
+          <t>https://globus-auto16.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1448000</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/solaris/krx</t>
+          <t>https://level-motors16.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="T274" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1448000</t>
         </is>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/solaris/krx</t>
+          <t>https://l-auto16.ru/catalog/solaris/krs</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2069000</v>
+        <v>1464000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/all_new_jimny/</t>
-        </is>
-      </c>
-      <c r="J275" t="n">
-        <v>2069000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/all_new_jimny/</t>
+          <t>https://l-auto16.ru/catalog/solaris/krx</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/solaris/krx</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/solaris/krx</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/solaris/krx</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/solaris/krx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -18101,30 +18101,30 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1969000</v>
+        <v>2069000</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/sx4/</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/all_new_jimny/</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1969000</v>
+        <v>2069000</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/sx4/</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/all_new_jimny/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -18134,121 +18134,63 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1819000</v>
+        <v>1969000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/vitara/</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/sx4/</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1819000</v>
+        <v>1969000</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/suzuki/vitara/</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/sx4/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>4049000</v>
+        <v>1819000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/300/40015/</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/tank/tank_300</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/vitara/</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>4049000</v>
+        <v>1819000</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/tank/300/</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>4049000</v>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/tank/300/40015/</t>
-        </is>
-      </c>
-      <c r="P278" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="Q278" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="R278" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/tank/300</t>
-        </is>
-      </c>
-      <c r="T278" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="U278" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/tank/tank_300</t>
+          <t>https://kazan.avtosalon.shop/catalog/suzuki/vitara/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -18258,30 +18200,88 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>6199000</v>
+        <v>4049000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/400/39832/</t>
+          <t>https://kanavto.ru/new/tank/300/40015/</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>4099000</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>4099000</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>4049000</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/tank/300/</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>6199000</v>
+        <v>4049000</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/400/39832/</t>
+          <t>https://kanavto.ru/new/tank/300/40015/</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>4099000</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>4099000</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/tank/300</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>4099000</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -18291,143 +18291,111 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>5527970</v>
+        <v>6199000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/500/28121/</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>6299000</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>6299000</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="J280" t="n">
-        <v>6249000</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/tank/500/</t>
+          <t>https://kanavto.ru/new/tank/400/39832/</t>
         </is>
       </c>
       <c r="L280" t="n">
-        <v>5527970</v>
+        <v>6199000</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/tank/500/28121/</t>
-        </is>
-      </c>
-      <c r="P280" t="inlineStr">
-        <is>
-          <t>6299000</t>
-        </is>
-      </c>
-      <c r="Q280" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="T280" t="inlineStr">
-        <is>
-          <t>6299000</t>
-        </is>
-      </c>
-      <c r="U280" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/tank/tank_500</t>
+          <t>https://kanavto.ru/new/tank/400/39832/</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1931000</v>
+        <v>5527970</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://kanavto.ru/new/tank/500/28121/</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1931000</t>
+          <t>6299000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://lvl-auto.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1931000</t>
+          <t>6299000</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://globus-auto16.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>6249000</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/tank/500/</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>5527970</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/tank/500/28121/</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>1931000</t>
+          <t>6299000</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://level-motors16.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="T281" t="inlineStr">
         <is>
-          <t>1931000</t>
+          <t>6299000</t>
         </is>
       </c>
       <c r="U281" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://l-auto16.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -18437,70 +18405,62 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1798000</v>
+        <v>1931000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
+          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>1798000</t>
+          <t>1931000</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/camry_21</t>
+          <t>https://lvl-auto.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1798000</t>
+          <t>1931000</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/camry_21</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>5300000</v>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/toyota/camry/30469/</t>
+          <t>https://globus-auto16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>1798000</t>
+          <t>1931000</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/camry_21</t>
+          <t>https://level-motors16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="T282" t="inlineStr">
         <is>
-          <t>1798000</t>
+          <t>1931000</t>
         </is>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
+          <t>https://l-auto16.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -18510,62 +18470,70 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1255000</v>
+        <v>1798000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1798000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://lvl-auto.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1798000</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://globus-auto16.ru/catalog/toyota/camry_21</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/toyota/camry/30469/</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1798000</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://level-motors16.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1798000</t>
         </is>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://l-auto16.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -18575,62 +18543,62 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3064000</v>
+        <v>1255000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3064000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://lvl-auto.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>3064000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://globus-auto16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>3064000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://level-motors16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="T284" t="inlineStr">
         <is>
-          <t>3064000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://l-auto16.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -18640,62 +18608,62 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>4559000</v>
+        <v>3064000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
+          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>4559000</t>
+          <t>3064000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/highlander_20</t>
+          <t>https://lvl-auto.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>4559000</t>
+          <t>3064000</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/highlander_20</t>
+          <t>https://globus-auto16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>4559000</t>
+          <t>3064000</t>
         </is>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/highlander_20</t>
+          <t>https://level-motors16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
       <c r="T285" t="inlineStr">
         <is>
-          <t>4559000</t>
+          <t>3064000</t>
         </is>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
+          <t>https://l-auto16.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -18705,62 +18673,62 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2941000</v>
+        <v>4559000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
+          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2941000</t>
+          <t>4559000</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/hilux_20</t>
+          <t>https://lvl-auto.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2941000</t>
+          <t>4559000</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/hilux_20</t>
+          <t>https://globus-auto16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2941000</t>
+          <t>4559000</t>
         </is>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/hilux_20</t>
+          <t>https://level-motors16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>2941000</t>
+          <t>4559000</t>
         </is>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
+          <t>https://l-auto16.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -18770,70 +18738,62 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>3251000</v>
+        <v>2941000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>2941000</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://lvl-auto.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>2941000</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>11900000</v>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/toyota/land-cruiser-prado/32616/</t>
+          <t>https://globus-auto16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>2941000</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://level-motors16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>2941000</t>
         </is>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://l-auto16.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -18843,103 +18803,143 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1971000</v>
+        <v>3251000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1971000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://lvl-auto.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1971000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://globus-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>4990000</v>
+        <v>11900000</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/toyota/rav4/34185/</t>
+          <t>https://kanavto.ru/new/toyota/land-cruiser-prado/32616/</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>1971000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://level-motors16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>1971000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://l-auto16.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1295000</v>
+        <v>1971000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="J289" t="n">
-        <v>1295000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/hunter/</t>
+          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>4990000</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/toyota/rav4/34185/</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/toyota/Rav4_2019</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -18949,30 +18949,30 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1445000</v>
+        <v>1295000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot/</t>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/hunter/</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1445000</v>
+        <v>1295000</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot/</t>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -18982,63 +18982,63 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1470000</v>
+        <v>1445000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot_pickup/</t>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot/</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1470000</v>
+        <v>1445000</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot_pickup/</t>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Dream</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>7000000</v>
+        <v>1470000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/voyah/dream/9271/</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/voyah/dream/9271/</t>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -19048,153 +19048,103 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Dream</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>4790000</v>
+        <v>7000000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/voyah/voyah_free</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>4790000</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/voyah/voyah_free</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>4790000</t>
-        </is>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/voyah/voyah_free</t>
+          <t>https://kanavto.ru/new/voyah/dream/9271/</t>
         </is>
       </c>
       <c r="L293" t="n">
-        <v>4990000</v>
+        <v>7000000</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/voyah/free/40129/</t>
-        </is>
-      </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>4790000</t>
-        </is>
-      </c>
-      <c r="Q293" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/voyah/voyah_free</t>
-        </is>
-      </c>
-      <c r="T293" t="inlineStr">
-        <is>
-          <t>4790000</t>
-        </is>
-      </c>
-      <c r="U293" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/voyah/voyah_free</t>
+          <t>https://kanavto.ru/new/voyah/dream/9271/</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1282000</v>
+        <v>4790000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/jetta</t>
+          <t>https://l-auto16.ru/catalog/voyah/voyah_free</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1282000</t>
+          <t>4790000</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/volkswagen/jetta</t>
+          <t>https://lvl-auto.ru/catalog/voyah/voyah_free</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1282000</t>
+          <t>4790000</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J294" t="n">
-        <v>1527000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/jetta/</t>
+          <t>https://globus-auto16.ru/catalog/voyah/voyah_free</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>4990000</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/voyah/free/40129/</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>1282000</t>
+          <t>4790000</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="R294" t="inlineStr">
-        <is>
-          <t>1282000</t>
-        </is>
-      </c>
-      <c r="S294" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://level-motors16.ru/catalog/voyah/voyah_free</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>1282000</t>
+          <t>4790000</t>
         </is>
       </c>
       <c r="U294" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/jetta</t>
+          <t>https://l-auto16.ru/catalog/voyah/voyah_free</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -19204,32 +19154,80 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Outlander 7 мест</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>1282000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/outlander_7_2019</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>1282000</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1282000</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/outlander_7_2019</t>
+          <t>https://globus-auto16.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>1527000</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>1282000</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>1282000</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>1282000</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -19239,30 +19237,32 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Outlander 7 мест</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2556000</v>
+        <v>1</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="J296" t="n">
-        <v>2556000</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/passat/</t>
+          <t>https://globus-auto16.ru/catalog/volkswagen/outlander_7_2019</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/volkswagen/outlander_7_2019</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -19272,40 +19272,30 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>685900</v>
+        <v>2556000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/passat/</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1520900</v>
+        <v>2556000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="R297" t="inlineStr">
-        <is>
-          <t>685900</t>
-        </is>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -19315,7 +19305,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -19323,54 +19313,32 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
+          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>1520900</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
         <is>
           <t>685900</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>685900</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>685900</t>
-        </is>
-      </c>
-      <c r="Q298" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>685900</t>
-        </is>
-      </c>
-      <c r="U298" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/polo_new</t>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -19380,80 +19348,62 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1326900</v>
+        <v>685900</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/taos</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1326900</t>
+          <t>685900</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/volkswagen/taos</t>
+          <t>https://lvl-auto.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1326900</t>
+          <t>685900</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J299" t="n">
-        <v>2728900</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/taos/</t>
+          <t>https://globus-auto16.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>1326900</t>
+          <t>685900</t>
         </is>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="R299" t="inlineStr">
-        <is>
-          <t>1326900</t>
-        </is>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/taos</t>
+          <t>https://level-motors16.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>1326900</t>
+          <t>685900</t>
         </is>
       </c>
       <c r="U299" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/taos</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -19463,113 +19413,163 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1276900</v>
+        <v>1326900</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1276900</t>
+          <t>1326900</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>https://lvl-auto.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://lvl-auto.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1276900</t>
+          <t>1326900</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://globus-auto16.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://globus-auto16.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3275900</v>
+        <v>2728900</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://kazan.avtosalon.shop/catalog/volkswagen/tiguan/</t>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/taos/</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>1276900</t>
+          <t>1326900</t>
         </is>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>https://level-motors16.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://level-motors16.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>1276900</t>
+          <t>1326900</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/tiguan_21</t>
+          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>1276900</t>
+          <t>1326900</t>
         </is>
       </c>
       <c r="U300" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Wey</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>5899000</v>
+        <v>1276900</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/05/29042/</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>5899000</v>
-      </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>https://kanavto.ru/new/wey/05/29042/</t>
+          <t>https://l-auto16.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>3275900</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>https://kazan-avtomobili-2025.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -19579,30 +19579,30 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>7099000</v>
+        <v>5899000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/07/34486/</t>
+          <t>https://kanavto.ru/new/wey/05/29042/</t>
         </is>
       </c>
       <c r="L302" t="n">
-        <v>7099000</v>
+        <v>5899000</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/07/34486/</t>
+          <t>https://kanavto.ru/new/wey/05/29042/</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -19612,63 +19612,63 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>7399000</v>
+        <v>7099000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/80/35017/</t>
+          <t>https://kanavto.ru/new/wey/07/34486/</t>
         </is>
       </c>
       <c r="L303" t="n">
-        <v>7399000</v>
+        <v>7099000</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/80/35017/</t>
+          <t>https://kanavto.ru/new/wey/07/34486/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>869</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Wey</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2495500</v>
+        <v>7399000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
+          <t>https://kanavto.ru/new/wey/80/35017/</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>2495500</v>
+        <v>7399000</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
+          <t>https://kanavto.ru/new/wey/80/35017/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -19678,167 +19678,200 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>X-Cross 8</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>3295500</v>
+        <v>2495500</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-8/33825/</t>
+          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>3295500</v>
+        <v>2495500</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/xcite/x-cross-8/33825/</t>
+          <t>https://kanavto.ru/new/xcite/x-cross-7/40521/</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>968000</v>
+        <v>3295500</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://l-auto16.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>968000</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>https://lvl-auto.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>968000</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>https://globus-auto16.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="J306" t="n">
-        <v>1089600</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>https://kazan.avtosalon.shop/catalog/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>968000</t>
-        </is>
-      </c>
-      <c r="Q306" t="inlineStr">
-        <is>
-          <t>https://level-motors16.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="T306" t="inlineStr">
-        <is>
-          <t>968000</t>
-        </is>
-      </c>
-      <c r="U306" t="inlineStr">
-        <is>
-          <t>https://l-auto16.ru/catalog/zotye/coupa</t>
+          <t>https://kanavto.ru/new/xcite/x-cross-8/33825/</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>3295500</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>https://kanavto.ru/new/xcite/x-cross-8/33825/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>968000</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>968000</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>https://lvl-auto.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>968000</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>https://globus-auto16.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>1089600</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>https://kazan.avtosalon.shop/catalog/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>968000</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>https://level-motors16.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>968000</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>https://l-auto16.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B308" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C308" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D308" t="n">
         <v>770000</v>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>https://l-auto16.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
+      <c r="F308" t="inlineStr">
         <is>
           <t>770000</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>https://lvl-auto.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
+      <c r="H308" t="inlineStr">
         <is>
           <t>770000</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr">
+      <c r="I308" t="inlineStr">
         <is>
           <t>https://globus-auto16.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="J307" t="n">
+      <c r="J308" t="n">
         <v>871600</v>
       </c>
-      <c r="K307" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>https://kazan.avtosalon.shop/catalog/zotye/t600/</t>
         </is>
       </c>
-      <c r="P307" t="inlineStr">
+      <c r="P308" t="inlineStr">
         <is>
           <t>770000</t>
         </is>
       </c>
-      <c r="Q307" t="inlineStr">
+      <c r="Q308" t="inlineStr">
         <is>
           <t>https://level-motors16.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="T307" t="inlineStr">
+      <c r="T308" t="inlineStr">
         <is>
           <t>770000</t>
         </is>
       </c>
-      <c r="U307" t="inlineStr">
+      <c r="U308" t="inlineStr">
         <is>
           <t>https://l-auto16.ru/catalog/zotye/t600</t>
         </is>

--- a/xlsx/kazan.xlsx
+++ b/xlsx/kazan.xlsx
@@ -13231,7 +13231,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/largus/40596/</t>
+          <t>https://kanavto.ru/new/lada/largus/42489/</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/vis-23461/40177/</t>
+          <t>https://kanavto.ru/new/lada/vis-23461/40930/</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/lada/vis-23461/40177/</t>
+          <t>https://kanavto.ru/new/lada/vis-23461/40930/</t>
         </is>
       </c>
     </row>
@@ -17410,11 +17410,11 @@
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2129900</v>
+        <v>2379900</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/omoda/s5-gt/34851/</t>
+          <t>https://kanavto.ru/new/omoda/s5-gt/35447/</t>
         </is>
       </c>
       <c r="N255" t="n">
@@ -21288,19 +21288,19 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>5399000</v>
+        <v>5499000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/05/29042/</t>
+          <t>https://kanavto.ru/new/wey/05/36604/</t>
         </is>
       </c>
       <c r="L317" t="n">
-        <v>5399000</v>
+        <v>5499000</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/05/29042/</t>
+          <t>https://kanavto.ru/new/wey/05/36604/</t>
         </is>
       </c>
     </row>
@@ -21354,19 +21354,19 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>6499000</v>
+        <v>7999000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/80/35017/</t>
+          <t>https://kanavto.ru/new/wey/80/42461/</t>
         </is>
       </c>
       <c r="L319" t="n">
-        <v>6499000</v>
+        <v>7999000</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>https://kanavto.ru/new/wey/80/35017/</t>
+          <t>https://kanavto.ru/new/wey/80/42461/</t>
         </is>
       </c>
     </row>
